--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N2">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O2">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P2">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q2">
-        <v>10.58313427373222</v>
+        <v>0.4307094136106667</v>
       </c>
       <c r="R2">
-        <v>95.24820846358999</v>
+        <v>3.876384722496</v>
       </c>
       <c r="S2">
-        <v>0.1040661248961594</v>
+        <v>0.007780432331474135</v>
       </c>
       <c r="T2">
-        <v>0.1040661248961594</v>
+        <v>0.007780432331474136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>208.582405</v>
       </c>
       <c r="O3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q3">
-        <v>23.85881427503888</v>
+        <v>4.291513455406666</v>
       </c>
       <c r="R3">
-        <v>214.72932847535</v>
+        <v>38.62362109866</v>
       </c>
       <c r="S3">
-        <v>0.2346086028959412</v>
+        <v>0.07752287037214504</v>
       </c>
       <c r="T3">
-        <v>0.2346086028959412</v>
+        <v>0.07752287037214504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.186623</v>
       </c>
       <c r="O4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q4">
-        <v>3.45291364220111</v>
+        <v>0.6210797060173334</v>
       </c>
       <c r="R4">
-        <v>31.07622277980999</v>
+        <v>5.589717354156</v>
       </c>
       <c r="S4">
-        <v>0.03395320639905598</v>
+        <v>0.0112193243807013</v>
       </c>
       <c r="T4">
-        <v>0.03395320639905598</v>
+        <v>0.0112193243807013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N5">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O5">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P5">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q5">
-        <v>17.22743911998044</v>
+        <v>3.897886233628444</v>
       </c>
       <c r="R5">
-        <v>155.046952079824</v>
+        <v>35.080976102656</v>
       </c>
       <c r="S5">
-        <v>0.1694009340456592</v>
+        <v>0.07041229914687805</v>
       </c>
       <c r="T5">
-        <v>0.1694009340456592</v>
+        <v>0.07041229914687806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>208.582405</v>
       </c>
       <c r="O6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q6">
         <v>38.83785840441777</v>
@@ -818,10 +818,10 @@
         <v>349.54072563976</v>
       </c>
       <c r="S6">
-        <v>0.3819006089193421</v>
+        <v>0.7015758645296138</v>
       </c>
       <c r="T6">
-        <v>0.3819006089193421</v>
+        <v>0.7015758645296141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>30.186623</v>
       </c>
       <c r="O7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q7">
-        <v>5.620722370046221</v>
+        <v>5.620722370046222</v>
       </c>
       <c r="R7">
-        <v>50.58650133041599</v>
+        <v>50.586501330416</v>
       </c>
       <c r="S7">
-        <v>0.05526971320959991</v>
+        <v>0.1015340010508294</v>
       </c>
       <c r="T7">
-        <v>0.05526971320959991</v>
+        <v>0.1015340010508294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N8">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O8">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P8">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q8">
-        <v>0.5907709571998888</v>
+        <v>0.1336680376728889</v>
       </c>
       <c r="R8">
-        <v>5.316938614799</v>
+        <v>1.203012339056</v>
       </c>
       <c r="S8">
-        <v>0.00580917170913926</v>
+        <v>0.0024146096860909</v>
       </c>
       <c r="T8">
-        <v>0.00580917170913926</v>
+        <v>0.0024146096860909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>208.582405</v>
       </c>
       <c r="O9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q9">
         <v>1.331845007570555</v>
@@ -1004,10 +1004,10 @@
         <v>11.986605068135</v>
       </c>
       <c r="S9">
-        <v>0.01309630448932077</v>
+        <v>0.02405874965802637</v>
       </c>
       <c r="T9">
-        <v>0.01309630448932077</v>
+        <v>0.02405874965802637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.186623</v>
       </c>
       <c r="O10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q10">
-        <v>0.1927482959934444</v>
+        <v>0.1927482959934445</v>
       </c>
       <c r="R10">
         <v>1.734734663941</v>
       </c>
       <c r="S10">
-        <v>0.001895333435782053</v>
+        <v>0.003481848844240821</v>
       </c>
       <c r="T10">
-        <v>0.001895333435782053</v>
+        <v>0.003481848844240822</v>
       </c>
     </row>
   </sheetData>
